--- a/TIS_intern_scheduling.xlsx
+++ b/TIS_intern_scheduling.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6240" yWindow="460" windowWidth="25520" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="1540" yWindow="960" windowWidth="25520" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,13 +24,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>計画</t>
     <rPh sb="0" eb="2">
       <t>ケ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>問題点
@@ -38,11 +38,11 @@
     <rPh sb="0" eb="3">
       <t>モンダイテン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>個人作業</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>進捗報告
@@ -50,36 +50,39 @@
     <rPh sb="0" eb="4">
       <t>シンチョクh</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>個人作業</t>
     <rPh sb="0" eb="4">
       <t>コジn</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>マージ</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>問題点
+洗い出し</t>
+    <rPh sb="0" eb="3">
+      <t>モンダ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>アラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="0"/>
       <name val="Yu Gothic"/>
       <family val="2"/>
       <charset val="128"/>
@@ -94,15 +97,17 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="0"/>
-      <name val="源真ゴシック Regular"/>
+      <color theme="1"/>
+      <name val="メイリオ"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Courier"/>
+      <color theme="0"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="6">
@@ -137,7 +142,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -218,49 +223,72 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -541,299 +569,310 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" style="5" customWidth="1"/>
+    <col min="2" max="6" width="12.7109375" style="5"/>
+    <col min="7" max="7" width="15.5703125" style="5" customWidth="1"/>
+    <col min="8" max="16384" width="12.7109375" style="5"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="16">
+    <row r="1" spans="1:11" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1">
         <v>42420</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="16">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="1">
         <v>42421</v>
       </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-    </row>
-    <row r="2" spans="1:11" ht="21" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17">
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+    </row>
+    <row r="2" spans="1:11" ht="23" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="6">
         <v>0.5625</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="G2" s="17">
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="G2" s="6">
         <v>0.41666666666666669</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="20"/>
+    </row>
+    <row r="3" spans="1:11" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="6">
+        <v>0.57291666666666696</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="G3" s="6">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="H3" s="11"/>
+      <c r="I3" s="21"/>
+    </row>
+    <row r="4" spans="1:11" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="6">
+        <v>0.58333333333333404</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="G4" s="6">
+        <v>0.4375</v>
+      </c>
+      <c r="I4" s="19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="17">
-        <v>0.57291666666666696</v>
-      </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="G3" s="17">
-        <v>0.42708333333333331</v>
-      </c>
-      <c r="H3" s="9"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="17">
-        <v>0.58333333333333404</v>
-      </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="G4" s="17">
-        <v>0.4375</v>
-      </c>
-      <c r="H4" s="9"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="17">
+    <row r="5" spans="1:11" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="6">
         <v>0.59375</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="G5" s="17">
+      <c r="B5" s="7"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="G5" s="6">
         <v>0.44791666666666702</v>
       </c>
-      <c r="H5" s="9"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="17">
+      <c r="I5" s="18"/>
+    </row>
+    <row r="6" spans="1:11" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="6">
         <v>0.60416666666666696</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="G6" s="17">
+      <c r="B6" s="7"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="G6" s="6">
         <v>0.45833333333333298</v>
       </c>
-      <c r="H6" s="9"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="17">
+      <c r="I6" s="18"/>
+    </row>
+    <row r="7" spans="1:11" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="6">
         <v>0.61458333333333404</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="G7" s="17">
+      <c r="B7" s="7"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="G7" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H7" s="9"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="17">
+      <c r="I7" s="18"/>
+    </row>
+    <row r="8" spans="1:11" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="6">
         <v>0.625000000000001</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="13" t="s">
+      <c r="B8" s="8"/>
+      <c r="C8" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="G8" s="17">
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="G8" s="6">
         <v>0.47916666666666602</v>
       </c>
-      <c r="H8" s="9"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="17">
+      <c r="I8" s="18"/>
+    </row>
+    <row r="9" spans="1:11" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="6">
         <v>0.63541666666666696</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="G9" s="17">
+      <c r="B9" s="8"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="G9" s="6">
         <v>0.48958333333333298</v>
       </c>
-      <c r="H9" s="9"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="17">
+      <c r="I9" s="18"/>
+    </row>
+    <row r="10" spans="1:11" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="6">
         <v>0.64583333333333404</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="G10" s="17">
+      <c r="B10" s="8"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="G10" s="6">
         <v>0.5</v>
       </c>
-      <c r="H10" s="9"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="17">
+      <c r="I10" s="18"/>
+    </row>
+    <row r="11" spans="1:11" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="6">
         <v>0.656250000000001</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="G11" s="17">
+      <c r="B11" s="8"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="G11" s="6">
         <v>0.51041666666666596</v>
       </c>
-      <c r="H11" s="9"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="17">
+      <c r="I11" s="18"/>
+    </row>
+    <row r="12" spans="1:11" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="6">
         <v>0.66666666666666796</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
       <c r="D12" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="G12" s="17">
+      <c r="E12" s="8"/>
+      <c r="G12" s="6">
         <v>0.52083333333333304</v>
       </c>
-      <c r="H12" s="9"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="17">
+      <c r="I12" s="18"/>
+    </row>
+    <row r="13" spans="1:11" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="6">
         <v>0.67708333333333504</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
       <c r="D13" s="12"/>
-      <c r="E13" s="2"/>
-      <c r="G13" s="17">
+      <c r="E13" s="8"/>
+      <c r="G13" s="6">
         <v>0.53125</v>
       </c>
-      <c r="H13" s="9"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="17">
+      <c r="I13" s="18"/>
+    </row>
+    <row r="14" spans="1:11" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="6">
         <v>0.687500000000001</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
       <c r="D14" s="12"/>
-      <c r="E14" s="2"/>
-      <c r="G14" s="17">
+      <c r="E14" s="8"/>
+      <c r="G14" s="6">
         <v>0.54166666666666696</v>
       </c>
-      <c r="H14" s="9"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="17">
+      <c r="I14" s="18"/>
+    </row>
+    <row r="15" spans="1:11" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="6">
         <v>0.69791666666666796</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
       <c r="D15" s="12"/>
-      <c r="E15" s="2"/>
-      <c r="G15" s="17">
+      <c r="E15" s="8"/>
+      <c r="G15" s="6">
         <v>0.55208333333333304</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="J15" s="13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="17">
+    <row r="16" spans="1:11" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="6">
         <v>0.70833333333333504</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
       <c r="D16" s="12"/>
-      <c r="E16" s="2"/>
-      <c r="G16" s="17">
+      <c r="E16" s="8"/>
+      <c r="G16" s="6">
         <v>0.5625</v>
       </c>
-      <c r="I16" s="7"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="17">
+      <c r="J16" s="13"/>
+    </row>
+    <row r="17" spans="1:10" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="6">
         <v>0.718750000000002</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
       <c r="D17" s="12"/>
-      <c r="E17" s="2"/>
-      <c r="G17" s="17">
+      <c r="E17" s="8"/>
+      <c r="G17" s="6">
         <v>0.57291666666666596</v>
       </c>
-      <c r="I17" s="7"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="17">
+      <c r="J17" s="13"/>
+    </row>
+    <row r="18" spans="1:10" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="6">
         <v>0.72916666666666796</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="10" t="s">
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="G18" s="17">
+      <c r="G18" s="6">
         <v>0.58333333333333304</v>
       </c>
-      <c r="I18" s="7"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="17">
+      <c r="J18" s="13"/>
+    </row>
+    <row r="19" spans="1:10" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="6">
         <v>0.73958333333333504</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="11"/>
-      <c r="G19" s="17">
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="15"/>
+      <c r="G19" s="6">
         <v>0.59375</v>
       </c>
-      <c r="I19" s="7"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="17">
+      <c r="J19" s="13"/>
+    </row>
+    <row r="20" spans="1:10" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="6">
         <v>0.750000000000002</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="11"/>
-      <c r="G20" s="17">
-        <v>0.60416666666666596</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="G21" s="1"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="15"/>
+      <c r="G20" s="6">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="J20" s="13"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G21" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="E18:E20"/>
-    <mergeCell ref="H2:H14"/>
-    <mergeCell ref="I15:I19"/>
     <mergeCell ref="B2:B7"/>
     <mergeCell ref="C8:C11"/>
     <mergeCell ref="D12:D17"/>
+    <mergeCell ref="J15:J20"/>
+    <mergeCell ref="H2:H3"/>
   </mergeCells>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>